--- a/data/z2-pXRF.xlsx
+++ b/data/z2-pXRF.xlsx
@@ -689,34 +689,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.134124820920758</v>
+        <v>0.129981006541</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.495786800784839</v>
+        <v>-0.491458120365534</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.571717893410457</v>
+        <v>-0.570275286440014</v>
       </c>
       <c r="E2" t="n">
-        <v>0.337577766362493</v>
+        <v>0.331957142335282</v>
       </c>
       <c r="F2" t="n">
-        <v>0.452158999174652</v>
+        <v>0.44765382821751</v>
       </c>
       <c r="G2" t="n">
-        <v>0.482022586833526</v>
+        <v>0.472808810823647</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.331572761777765</v>
+        <v>-0.324806275413786</v>
       </c>
       <c r="I2" t="n">
-        <v>0.214790224570539</v>
+        <v>0.210182884971639</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.543127972141032</v>
+        <v>-0.534833115954804</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.586326750301681</v>
+        <v>-0.587399124836968</v>
       </c>
     </row>
     <row r="3">
@@ -724,34 +724,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0664690076850126</v>
+        <v>0.0622823061569995</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.603655276365199</v>
+        <v>-0.599568495003342</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.516813656414449</v>
+        <v>-0.514316871562106</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0481940358827131</v>
+        <v>-0.0563935948106807</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.29382547196379</v>
+        <v>-0.300293204283814</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0867169225418041</v>
+        <v>-0.101622753630961</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.593636558857208</v>
+        <v>-0.599473997091446</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.50177761345436</v>
+        <v>-0.493268290510743</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.071948251166254</v>
+        <v>-0.0701679786741272</v>
       </c>
     </row>
     <row r="4">
@@ -759,34 +759,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.227927667535419</v>
+        <v>0.223843314957938</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.652963100981503</v>
+        <v>-0.64898689424523</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.748950496148379</v>
+        <v>-0.750910808514956</v>
       </c>
       <c r="E4" t="n">
-        <v>0.212819970405399</v>
+        <v>0.206365324212072</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.226195011668272</v>
+        <v>-0.232484819469134</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.142465278425532</v>
+        <v>-0.15792904984948</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.780905407853033</v>
+        <v>-0.774033575004585</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.571246216047969</v>
+        <v>-0.563097197256766</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.890892966895025</v>
+        <v>-0.893654408749177</v>
       </c>
     </row>
     <row r="5">
@@ -794,34 +794,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.380699799016911</v>
+        <v>0.376712288983163</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.63129200769335</v>
+        <v>-0.627267202726573</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.487442667120092</v>
+        <v>-0.48438195042974</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0157110152763733</v>
+        <v>-0.023693420967541</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.416789945228368</v>
+        <v>-0.423581176674143</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0647847270728159</v>
+        <v>-0.0794710565051317</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.556239084815399</v>
+        <v>-0.549419925209186</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.750106258875482</v>
+        <v>-0.756181780716559</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.592748402565039</v>
+        <v>-0.584710906487677</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.28344497939311</v>
+        <v>-1.28838344134713</v>
       </c>
     </row>
     <row r="6">
@@ -829,34 +829,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.679714590991179</v>
+        <v>0.675916627000861</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.66440738620109</v>
+        <v>-0.660456843698903</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.706850950241626</v>
+        <v>-0.708002938650687</v>
       </c>
       <c r="E6" t="n">
-        <v>0.425540636323024</v>
+        <v>0.420508055574228</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.256936129984416</v>
+        <v>-0.263306812566716</v>
       </c>
       <c r="G6" t="n">
-        <v>0.405211593891474</v>
+        <v>0.395229078598825</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.681053708725195</v>
+        <v>-0.67420528620663</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.385010292166177</v>
+        <v>-0.390530285591295</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.62169365364571</v>
+        <v>-0.61380628429852</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.728457651378575</v>
+        <v>-0.730318257329332</v>
       </c>
     </row>
     <row r="7">
@@ -864,34 +864,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>1.39907865257599</v>
+        <v>1.3957366948279</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.468637060317096</v>
+        <v>-0.464247495597778</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.287897023072047</v>
+        <v>-0.2810049699331</v>
       </c>
       <c r="E7" t="n">
-        <v>0.929458646260317</v>
+        <v>0.92779482324701</v>
       </c>
       <c r="F7" t="n">
-        <v>0.532085906796628</v>
+        <v>0.527791010271223</v>
       </c>
       <c r="G7" t="n">
-        <v>0.964869048755416</v>
+        <v>0.960487693582825</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.231721062649927</v>
+        <v>-0.22497798661583</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.332853725493419</v>
+        <v>-0.338294357716257</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.471178348026222</v>
+        <v>-0.462510319682138</v>
       </c>
       <c r="K7" t="n">
-        <v>0.131095893229309</v>
+        <v>0.134002210600679</v>
       </c>
     </row>
     <row r="8">
@@ -899,34 +899,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0462830315257045</v>
+        <v>0.0420835340691405</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.711158508800252</v>
+        <v>-0.707312807424545</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.67297956742636</v>
+        <v>-0.673481215086749</v>
       </c>
       <c r="E8" t="n">
-        <v>0.269449661196983</v>
+        <v>0.263373591885511</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.357357116483822</v>
+        <v>-0.363991990018817</v>
       </c>
       <c r="G8" t="n">
-        <v>0.220237196422847</v>
+        <v>0.208403421561817</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.254618875484282</v>
+        <v>-0.259940465903701</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.555533079747034</v>
+        <v>-0.547302563588022</v>
       </c>
       <c r="K8" t="n">
-        <v>0.124327755082791</v>
+        <v>0.127196537624852</v>
       </c>
     </row>
     <row r="9">
@@ -934,34 +934,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0875877654141369</v>
+        <v>0.0834144511066799</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.588923802837859</v>
+        <v>-0.584803985600211</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.623139683039095</v>
+        <v>-0.622684389912539</v>
       </c>
       <c r="E9" t="n">
-        <v>0.328953955582049</v>
+        <v>0.323275680253033</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0750679478299453</v>
+        <v>0.0695707128871701</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3619752173612</v>
+        <v>0.351559984044601</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.531276160033439</v>
+        <v>-0.524462853009697</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0322422412158866</v>
+        <v>0.027357137409007</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.535684907577431</v>
+        <v>-0.527351447374873</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.159934047070998</v>
+        <v>-0.158641727359876</v>
       </c>
     </row>
     <row r="10">
@@ -969,34 +969,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>2.079003543412</v>
+        <v>2.07609259134104</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.633726961995389</v>
+        <v>-0.629707617503951</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6007279488886</v>
+        <v>-0.599842343718219</v>
       </c>
       <c r="E10" t="n">
-        <v>1.62683747803891</v>
+        <v>1.62983572363159</v>
       </c>
       <c r="F10" t="n">
-        <v>1.52809814023971</v>
+        <v>1.52642358663288</v>
       </c>
       <c r="G10" t="n">
-        <v>2.15196120571456</v>
+        <v>2.15946049858946</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.431424460905602</v>
+        <v>-0.424634564211741</v>
       </c>
       <c r="I10" t="n">
-        <v>0.345181641252434</v>
+        <v>0.340772704659233</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.556360086920767</v>
+        <v>-0.548133860096904</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0498782354710838</v>
+        <v>0.0523341348907562</v>
       </c>
     </row>
     <row r="11">
@@ -1004,34 +1004,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.440135474668649</v>
+        <v>0.43618564102236</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.543390157389716</v>
+        <v>-0.539168229263257</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.418870881630445</v>
+        <v>-0.414493566011837</v>
       </c>
       <c r="E11" t="n">
-        <v>0.906174357153117</v>
+        <v>0.904354875624936</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14064900023772</v>
+        <v>0.135324298162012</v>
       </c>
       <c r="G11" t="n">
-        <v>0.750088121321227</v>
+        <v>0.743557197059833</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.431424460905602</v>
+        <v>-0.424634564211741</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.254618875484282</v>
+        <v>-0.259940465903701</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.488545498674624</v>
+        <v>-0.479967546368644</v>
       </c>
       <c r="K11" t="n">
-        <v>0.571024872753029</v>
+        <v>0.576370954029424</v>
       </c>
     </row>
     <row r="12">
@@ -1039,34 +1039,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.447843430372503</v>
+        <v>-0.452356155529905</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.673294969403535</v>
+        <v>-0.66936435763633</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.836742007351384</v>
+        <v>-0.840387943166941</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.394871229256572</v>
+        <v>-0.405388370517113</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.392197050575453</v>
+        <v>-0.398923582196077</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.502655695643103</v>
+        <v>-0.521724322471034</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.830831257416951</v>
+        <v>-0.823947719403563</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.658908976463715</v>
+        <v>-0.651214627198174</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.16838663090229</v>
+        <v>-1.17268700075808</v>
       </c>
     </row>
     <row r="13">
@@ -1074,34 +1074,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0399430317933587</v>
+        <v>0.0357395153989466</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.650649894394565</v>
+        <v>-0.646668500206722</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.843244455634102</v>
+        <v>-0.847015240414563</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.359513605056751</v>
+        <v>-0.36979437597989</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.394246458463196</v>
+        <v>-0.400978381735916</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.473380562484057</v>
+        <v>-0.492156198113649</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.855794182198911</v>
+        <v>-0.848904791603052</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.854419392220998</v>
+        <v>-0.860653636466635</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.659735983637448</v>
+        <v>-0.652045923707056</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.60831561042602</v>
+        <v>-1.61505574418682</v>
       </c>
     </row>
     <row r="14">
@@ -1109,34 +1109,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>0.506100621309103</v>
+        <v>0.502192603094309</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.621186947339885</v>
+        <v>-0.617139481400458</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.469215509401321</v>
+        <v>-0.4658048257946</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0328697854534627</v>
+        <v>0.0252121487624649</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0832655793809171</v>
+        <v>0.0777899110465253</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0436202214567212</v>
+        <v>0.0300188297291451</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.606164934379317</v>
+        <v>-0.599334069608163</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.697949692202724</v>
+        <v>-0.703945852841521</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.5497440295309</v>
+        <v>-0.541483488025854</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.36974632961308</v>
+        <v>-0.369617589610509</v>
       </c>
     </row>
     <row r="15">
@@ -1144,34 +1144,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.037434114365317</v>
+        <v>-0.0416866802793513</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.676338662281084</v>
+        <v>-0.672414876108051</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.565641234239054</v>
+        <v>-0.564081953582847</v>
       </c>
       <c r="E15" t="n">
-        <v>0.113646146430291</v>
+        <v>0.106528510266202</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.170860998699212</v>
+        <v>-0.177005231893486</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0830885115407818</v>
+        <v>0.0698821260987549</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.581202009597358</v>
+        <v>-0.574376997408675</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.358932008829798</v>
+        <v>-0.364412321653776</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.553052058225833</v>
+        <v>-0.544808674061379</v>
       </c>
       <c r="K15" t="n">
-        <v>0.219081689134053</v>
+        <v>0.222475959286428</v>
       </c>
     </row>
     <row r="16">
@@ -1179,34 +1179,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>0.393190327225234</v>
+        <v>0.389210734960993</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.566400475543991</v>
+        <v>-0.562230148909472</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.333642564481642</v>
+        <v>-0.327628839511668</v>
       </c>
       <c r="E16" t="n">
-        <v>0.322917288035738</v>
+        <v>0.317198656795458</v>
       </c>
       <c r="F16" t="n">
-        <v>0.882534655600677</v>
+        <v>0.879161731583659</v>
       </c>
       <c r="G16" t="n">
-        <v>0.224681606077356</v>
+        <v>0.212892311728285</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.556239084815399</v>
+        <v>-0.549419925209186</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.619714842193587</v>
+        <v>-0.625591961028965</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.568765194526769</v>
+        <v>-0.560603307730122</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.559254197715605</v>
+        <v>-0.560176432933661</v>
       </c>
     </row>
     <row r="17">
@@ -1214,34 +1214,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.262861185308289</v>
+        <v>-0.267256649869902</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.741230194430443</v>
+        <v>-0.737451929925153</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.668600425109334</v>
+        <v>-0.669017991918684</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.253728192816635</v>
+        <v>-0.263301774437629</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.17700922236244</v>
+        <v>-0.183169630513003</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.235652954768436</v>
+        <v>-0.252049366492046</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.656090783943236</v>
+        <v>-0.649248214007141</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.385010292166177</v>
+        <v>-0.390530285591295</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.567111180179302</v>
+        <v>-0.55894071471236</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.450963987371305</v>
+        <v>-0.451285665320431</v>
       </c>
     </row>
     <row r="18">
@@ -1249,34 +1249,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>0.103241006132618</v>
+        <v>0.0990776144441242</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.581740687646841</v>
+        <v>-0.577604762006948</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.552010343086123</v>
+        <v>-0.550189345215542</v>
       </c>
       <c r="E18" t="n">
-        <v>0.277211090899383</v>
+        <v>0.271186907759536</v>
       </c>
       <c r="F18" t="n">
-        <v>0.673495051050894</v>
+        <v>0.669572178520101</v>
       </c>
       <c r="G18" t="n">
-        <v>0.217145433184929</v>
+        <v>0.205280715359057</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.606164934379317</v>
+        <v>-0.599334069608163</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.150305742138766</v>
+        <v>-0.155468610153625</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.558014101268234</v>
+        <v>-0.549796453114666</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.823211585429838</v>
+        <v>-0.825597678990908</v>
       </c>
     </row>
     <row r="19">
@@ -1284,34 +1284,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.195981475488055</v>
+        <v>-0.200334544874839</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.696244413700259</v>
+        <v>-0.69236526691311</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.703431948271637</v>
+        <v>-0.704518290813418</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0530089969017946</v>
+        <v>-0.0612407444732702</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0115195354271954</v>
+        <v>-0.0172445676710194</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0966202266632636</v>
+        <v>-0.111625171936677</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.730979558289114</v>
+        <v>-0.724119430605608</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.332853725493419</v>
+        <v>-0.338294357716257</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.580136543165604</v>
+        <v>-0.572033634727239</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.251303912049001</v>
+        <v>-0.250518312533539</v>
       </c>
     </row>
     <row r="20">
@@ -1319,34 +1319,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>1.71167707616071</v>
+        <v>1.70853327514588</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.565669989253379</v>
+        <v>-0.561498024476259</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.629382710141409</v>
+        <v>-0.629047285014984</v>
       </c>
       <c r="E20" t="n">
-        <v>0.863342763610244</v>
+        <v>0.861236947283097</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0505861023956</v>
+        <v>1.04765529385044</v>
       </c>
       <c r="G20" t="n">
-        <v>1.75843771608817</v>
+        <v>1.7619985497194</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.481350310469521</v>
+        <v>-0.474548708610719</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0583205245522656</v>
+        <v>0.053475101346526</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.548090015183433</v>
+        <v>-0.539820895008091</v>
       </c>
       <c r="K20" t="n">
-        <v>0.131095893229309</v>
+        <v>0.134002210600679</v>
       </c>
     </row>
     <row r="21">
@@ -1354,34 +1354,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>1.55718512865987</v>
+        <v>1.55394339490667</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.55775638777175</v>
+        <v>-0.553566676449783</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.653043613671454</v>
+        <v>-0.653162485017065</v>
       </c>
       <c r="E21" t="n">
-        <v>0.821086090786067</v>
+        <v>0.818697783080074</v>
       </c>
       <c r="F21" t="n">
-        <v>0.509542420031456</v>
+        <v>0.505188215332996</v>
       </c>
       <c r="G21" t="n">
-        <v>1.23704083129348</v>
+        <v>1.23538342399455</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.681053708725195</v>
+        <v>-0.67420528620663</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0322422412158866</v>
+        <v>0.027357137409007</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.550571036704633</v>
+        <v>-0.542314784534735</v>
       </c>
       <c r="K21" t="n">
-        <v>0.665778806804292</v>
+        <v>0.671650375691001</v>
       </c>
     </row>
     <row r="22">
@@ -1389,34 +1389,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>1.84214989823878</v>
+        <v>1.83908880419318</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.548503561423999</v>
+        <v>-0.54429310029575</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.641626261938269</v>
+        <v>-0.641525916692857</v>
       </c>
       <c r="E22" t="n">
-        <v>1.20858265518736</v>
+        <v>1.20878481264249</v>
       </c>
       <c r="F22" t="n">
-        <v>0.765718405999327</v>
+        <v>0.762038157812847</v>
       </c>
       <c r="G22" t="n">
-        <v>1.51389856748901</v>
+        <v>1.51501200599484</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00616395787950764</v>
+        <v>0.00123917347148819</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.565457165831835</v>
+        <v>-0.557278121694597</v>
       </c>
       <c r="K22" t="n">
-        <v>0.611633701632142</v>
+        <v>0.617204991884385</v>
       </c>
     </row>
     <row r="23">
@@ -1424,34 +1424,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>0.103692822205498</v>
+        <v>0.0995297169240691</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.655519802998645</v>
+        <v>-0.651549329761476</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.765852350010742</v>
+        <v>-0.768137183060597</v>
       </c>
       <c r="E23" t="n">
-        <v>0.180336949799059</v>
+        <v>0.173665150368932</v>
       </c>
       <c r="F23" t="n">
-        <v>0.241069986737126</v>
+        <v>0.236009475614113</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0331907714853304</v>
+        <v>-0.0475609024956767</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.641541825815312</v>
+        <v>-0.633757400511669</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.07363269685103</v>
+        <v>-1.0774075790965</v>
       </c>
     </row>
     <row r="24">
@@ -1459,34 +1459,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.249671070922604</v>
+        <v>-0.254058174245705</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.691800622099037</v>
+        <v>-0.687911509944396</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.744007394743521</v>
+        <v>-0.745872798074764</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0518421691704401</v>
+        <v>0.0443113653434139</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.226195011668272</v>
+        <v>-0.232484819469134</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.173865998810648</v>
+        <v>-0.189644034721262</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.411088575502556</v>
+        <v>-0.416648249528814</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.613423581908375</v>
+        <v>-0.605493319209708</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.802907170990281</v>
+        <v>-0.805180660063428</v>
       </c>
     </row>
     <row r="25">
@@ -1494,34 +1494,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.275337138804583</v>
+        <v>-0.279740511896766</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.552399488307263</v>
+        <v>-0.548197763939553</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.807731951873241</v>
+        <v>-0.810820885888736</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.561023316959798</v>
+        <v>-0.572651206635121</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.877906719970537</v>
+        <v>-0.885911073137873</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.711301405402047</v>
+        <v>-0.732458198872924</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.830831257416951</v>
+        <v>-0.823947719403563</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.599364459954907</v>
+        <v>-0.591361278558727</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.870588552455469</v>
+        <v>-0.873237389821696</v>
       </c>
     </row>
     <row r="26">
@@ -1529,34 +1529,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>0.291079894754395</v>
+        <v>0.287035574493456</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.692774603819853</v>
+        <v>-0.688887675855347</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.721592840797587</v>
+        <v>-0.723027877944083</v>
       </c>
       <c r="E26" t="n">
-        <v>0.604053519478221</v>
+        <v>0.600214320676794</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2779593287165</v>
+        <v>0.272995867331212</v>
       </c>
       <c r="G26" t="n">
-        <v>0.487336554898699</v>
+        <v>0.478175962109641</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.805868332634992</v>
+        <v>-0.798990647204074</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0459926087932503</v>
+        <v>-0.0509967544035496</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.568765194526769</v>
+        <v>-0.560603307730122</v>
       </c>
       <c r="K26" t="n">
-        <v>0.144632169522347</v>
+        <v>0.147613556552333</v>
       </c>
     </row>
     <row r="27">
@@ -1564,34 +1564,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.124066202662015</v>
+        <v>-0.128373684821036</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.714323949392904</v>
+        <v>-0.710485346635135</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.651862119382443</v>
+        <v>-0.651958305681959</v>
       </c>
       <c r="E27" t="n">
-        <v>0.344476814986849</v>
+        <v>0.338902312001082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.280008736604243</v>
+        <v>0.27505066687105</v>
       </c>
       <c r="G27" t="n">
-        <v>0.250188652790188</v>
+        <v>0.238654637901056</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.254618875484282</v>
+        <v>-0.259940465903701</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.555533079747034</v>
+        <v>-0.547302563588022</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0634145117641213</v>
+        <v>0.0659454808424098</v>
       </c>
     </row>
     <row r="28">
@@ -1599,34 +1599,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.205670015308921</v>
+        <v>-0.210029226279463</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.621795685915395</v>
+        <v>-0.617749585094802</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.522884675994974</v>
+        <v>-0.520504456546551</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.405219802193105</v>
+        <v>-0.415806125015812</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0130565913430026</v>
+        <v>-0.0187856673258985</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.324782691861572</v>
+        <v>-0.34207113124349</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.481350310469521</v>
+        <v>-0.474548708610719</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.510874692365427</v>
+        <v>-0.502412552108437</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.775834618404206</v>
+        <v>-0.77795796816012</v>
       </c>
     </row>
     <row r="29">
@@ -1634,34 +1634,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>0.636063328466178</v>
+        <v>0.632237693857802</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.632874727989675</v>
+        <v>-0.628853472331869</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.832114723035712</v>
+        <v>-0.83567181359914</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0279829593445444</v>
+        <v>0.0202926535825236</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.14216928827081</v>
+        <v>-0.148238038335743</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.126233521426457</v>
+        <v>-0.141534842284989</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.930682956544789</v>
+        <v>-0.923776008201519</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.697949692202724</v>
+        <v>-0.703945852841521</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.620866646471976</v>
+        <v>-0.612974987789639</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.816443447283319</v>
+        <v>-0.818792006015082</v>
       </c>
     </row>
     <row r="30">
@@ -1669,34 +1669,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0840752598152971</v>
+        <v>0.0798997189238829</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.410928643358755</v>
+        <v>-0.406409665373939</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.476544157747714</v>
+        <v>-0.473274186395889</v>
       </c>
       <c r="E30" t="n">
-        <v>0.685404801173745</v>
+        <v>0.682109446319348</v>
       </c>
       <c r="F30" t="n">
-        <v>0.665297419499922</v>
+        <v>0.661352980360746</v>
       </c>
       <c r="G30" t="n">
-        <v>0.243087259103093</v>
+        <v>0.231482172091591</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00616395787950778</v>
+        <v>0.00123917347148831</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.542300964967299</v>
+        <v>-0.534001819445923</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.735225789525094</v>
+        <v>-0.737123930305159</v>
       </c>
     </row>
     <row r="31">
@@ -1704,34 +1704,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>0.888103823572974</v>
+        <v>0.884437957912201</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.633361718850083</v>
+        <v>-0.629341555287344</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.601951740109199</v>
+        <v>-0.601089632098734</v>
       </c>
       <c r="E31" t="n">
-        <v>0.623600823913894</v>
+        <v>0.619892301396559</v>
       </c>
       <c r="F31" t="n">
-        <v>0.114006697697062</v>
+        <v>0.108611904144107</v>
       </c>
       <c r="G31" t="n">
-        <v>0.694533000639868</v>
+        <v>0.687446069978987</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.805868332634992</v>
+        <v>-0.798990647204074</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.332853725493419</v>
+        <v>-0.338294357716257</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.589440373870105</v>
+        <v>-0.581385720452152</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.220847290389667</v>
+        <v>-0.219892784142318</v>
       </c>
     </row>
     <row r="32">
@@ -1739,34 +1739,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>1.12366031937567</v>
+        <v>1.1201437734241</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.478255129810153</v>
+        <v>-0.473887133968418</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.415413812422027</v>
+        <v>-0.4109701200337</v>
       </c>
       <c r="E32" t="n">
-        <v>0.691728929079404</v>
+        <v>0.688475851846331</v>
       </c>
       <c r="F32" t="n">
-        <v>0.536184722572114</v>
+        <v>0.531900609350901</v>
       </c>
       <c r="G32" t="n">
-        <v>0.693132045422686</v>
+        <v>0.686031093730861</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.531276160033439</v>
+        <v>-0.524462853009697</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.515401708848071</v>
+        <v>-0.521120105278889</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.450503168682886</v>
+        <v>-0.441727906960108</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.180238461510554</v>
+        <v>-0.179058746287357</v>
       </c>
     </row>
     <row r="33">
@@ -1774,34 +1774,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>0.117276453815949</v>
+        <v>0.113121959224347</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.677069148571696</v>
+        <v>-0.673147000541264</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.583600511391104</v>
+        <v>-0.582386054263727</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0739766168402469</v>
+        <v>0.0665937846878544</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.277430208861846</v>
+        <v>-0.283854807965104</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0119779570686433</v>
+        <v>-0.00194011656472803</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.88075710698087</v>
+        <v>-0.873861863802541</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.567558275520829</v>
+        <v>-0.573356033153927</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.557187094094501</v>
+        <v>-0.548965156605785</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.444195849224786</v>
+        <v>-0.444479992344604</v>
       </c>
     </row>
     <row r="34">
@@ -1809,34 +1809,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.578097631770145</v>
+        <v>-0.582692925312717</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.699714223580666</v>
+        <v>-0.695842857970872</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.601015568023395</v>
+        <v>-0.600135485227003</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.312370106123656</v>
+        <v>-0.322335716596926</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.527457971166489</v>
+        <v>-0.534540351825438</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.498114668387409</v>
+        <v>-0.51713784773573</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.581202009597358</v>
+        <v>-0.574376997408674</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.411088575502555</v>
+        <v>-0.416648249528814</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.527414835840097</v>
+        <v>-0.519038482286061</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.329137500733967</v>
+        <v>-0.328783551755548</v>
       </c>
     </row>
     <row r="35">
@@ -1844,34 +1844,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>0.702217946363</v>
+        <v>0.698434247292308</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.586367100820717</v>
+        <v>-0.582241550083965</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.745070457624086</v>
+        <v>-0.746956272082723</v>
       </c>
       <c r="E35" t="n">
-        <v>0.224030924419977</v>
+        <v>0.217651224918997</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0868352753017496</v>
+        <v>-0.0927584507600954</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0487892631201172</v>
+        <v>0.0352396041618848</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.855794182198911</v>
+        <v>-0.848904791603052</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.605980517344774</v>
+        <v>-0.598011650629777</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.843515999869394</v>
+        <v>-0.846014697918389</v>
       </c>
     </row>
     <row r="36">
@@ -1879,34 +1879,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>0.584789491550333</v>
+        <v>0.580931354359544</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.672442735397821</v>
+        <v>-0.668510212464248</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.881029714518931</v>
+        <v>-0.885525987647062</v>
       </c>
       <c r="E36" t="n">
-        <v>0.103010113134409</v>
+        <v>0.0958213736980946</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0233036307817174</v>
+        <v>-0.0290596650250924</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0221280561496513</v>
+        <v>-0.0363874693639255</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.805868332634992</v>
+        <v>-0.798990647204074</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.596883438433706</v>
+        <v>-0.588867389032083</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.126093356338404</v>
+        <v>-0.124613362480742</v>
       </c>
     </row>
     <row r="37">
@@ -1914,34 +1914,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>1.17040142085069</v>
+        <v>1.16691450417194</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.54545986854645</v>
+        <v>-0.541242581824028</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.666809855005464</v>
+        <v>-0.667193042329681</v>
       </c>
       <c r="E37" t="n">
-        <v>0.388170789607766</v>
+        <v>0.382888386551146</v>
       </c>
       <c r="F37" t="n">
-        <v>0.247218210400355</v>
+        <v>0.24217387423363</v>
       </c>
       <c r="G37" t="n">
-        <v>0.521587494518771</v>
+        <v>0.512769691762093</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.88075710698087</v>
+        <v>-0.873861863802541</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.582824316480238</v>
+        <v>-0.574735348381103</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.552486059569087</v>
+        <v>-0.553370759957834</v>
       </c>
     </row>
     <row r="38">
@@ -1949,34 +1949,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.0560605963375882</v>
+        <v>-0.0603249696138522</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.610716643841114</v>
+        <v>-0.606645697857736</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.563032923457825</v>
+        <v>-0.561423562449261</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0211727621039879</v>
+        <v>-0.0291916802862989</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.213898564341814</v>
+        <v>-0.220156022230101</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.160822622650677</v>
+        <v>-0.176470117928368</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.489323425511692</v>
+        <v>-0.49500214134137</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.540646950619832</v>
+        <v>-0.532339226428161</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0787163893127726</v>
+        <v>-0.0769736516499539</v>
       </c>
     </row>
     <row r="39">
@@ -1984,34 +1984,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>1.24938178533249</v>
+        <v>1.24594493445649</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.509787788021568</v>
+        <v>-0.505490505335452</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.349895865392997</v>
+        <v>-0.344194208694364</v>
       </c>
       <c r="E39" t="n">
-        <v>0.540812240421629</v>
+        <v>0.536550265406964</v>
       </c>
       <c r="F39" t="n">
-        <v>0.503394196368227</v>
+        <v>0.49902381671348</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812454782886125</v>
+        <v>0.806548036243635</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.529068850187563</v>
+        <v>-0.520701075303823</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.335905638880486</v>
+        <v>-0.335589224731374</v>
       </c>
     </row>
     <row r="40">
@@ -2019,34 +2019,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>0.758403461232409</v>
+        <v>0.754655378266096</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.652232614690891</v>
+        <v>-0.648254769812017</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.51951784024061</v>
+        <v>-0.517072976531954</v>
       </c>
       <c r="E40" t="n">
-        <v>1.33736489617533</v>
+        <v>1.33842797973741</v>
       </c>
       <c r="F40" t="n">
-        <v>1.007548536753</v>
+        <v>1.00450450351383</v>
       </c>
       <c r="G40" t="n">
-        <v>1.40684626537606</v>
+        <v>1.40688830372427</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.481350310469521</v>
+        <v>-0.474548708610719</v>
       </c>
       <c r="I40" t="n">
-        <v>0.423416491261571</v>
+        <v>0.41912659647179</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.515836735407828</v>
+        <v>-0.507400331161724</v>
       </c>
       <c r="K40" t="n">
-        <v>1.04479454300934</v>
+        <v>1.0527680623373</v>
       </c>
     </row>
     <row r="41">
@@ -2054,34 +2054,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>1.19950712077137</v>
+        <v>1.19603865425097</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.563843773526849</v>
+        <v>-0.559667713393226</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.501028441545996</v>
+        <v>-0.498228575815275</v>
       </c>
       <c r="E41" t="n">
-        <v>0.899275308528762</v>
+        <v>0.897409705959137</v>
       </c>
       <c r="F41" t="n">
-        <v>0.831299458407102</v>
+        <v>0.827791743087688</v>
       </c>
       <c r="G41" t="n">
-        <v>1.133370145222</v>
+        <v>1.13067518163325</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.581202009597358</v>
+        <v>-0.574376997408675</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.358932008829798</v>
+        <v>-0.364412321653776</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.538165929098631</v>
+        <v>-0.529845336901517</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.00426686970106615</v>
+        <v>-0.00211124891585848</v>
       </c>
     </row>
     <row r="42">
@@ -2089,34 +2089,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>0.960204923977375</v>
+        <v>0.95658476334082</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.50869205858565</v>
+        <v>-0.504392318685633</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.454013992188775</v>
+        <v>-0.450311434874421</v>
       </c>
       <c r="E42" t="n">
-        <v>0.474983818130905</v>
+        <v>0.470281771512459</v>
       </c>
       <c r="F42" t="n">
-        <v>0.493147156929512</v>
+        <v>0.488749819014286</v>
       </c>
       <c r="G42" t="n">
-        <v>0.444100178368425</v>
+        <v>0.434506867555417</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.331572761777765</v>
+        <v>-0.324806275413786</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.489323425511692</v>
+        <v>-0.49500214134137</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.507566663670494</v>
+        <v>-0.499087366072912</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.193774737803592</v>
+        <v>-0.192670092239011</v>
       </c>
     </row>
     <row r="43">
@@ -2124,34 +2124,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>0.078799214061023</v>
+        <v>0.0746203286742041</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.643101536058242</v>
+        <v>-0.639103214396853</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.506532682243249</v>
+        <v>-0.503838499591233</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0509797880923957</v>
+        <v>0.0434432191351891</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.133971656719838</v>
+        <v>-0.140018840176388</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.151305788933957</v>
+        <v>-0.166858037897997</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.583651323653971</v>
+        <v>-0.575566644889984</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.14131407831622</v>
+        <v>-1.14546430885477</v>
       </c>
     </row>
     <row r="44">
@@ -2159,34 +2159,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0703458810845619</v>
+        <v>0.0661616371139455</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.427486332612625</v>
+        <v>-0.423004485860104</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.679527132436104</v>
+        <v>-0.680154495316142</v>
       </c>
       <c r="E44" t="n">
-        <v>0.38443380493624</v>
+        <v>0.379126419648838</v>
       </c>
       <c r="F44" t="n">
-        <v>0.876386431937448</v>
+        <v>0.872997332964142</v>
       </c>
       <c r="G44" t="n">
-        <v>0.640185599973322</v>
+        <v>0.632554750008594</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.381498611341683</v>
+        <v>-0.374720419812764</v>
       </c>
       <c r="I44" t="n">
-        <v>0.632042757952602</v>
+        <v>0.628070307971941</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.532376878882497</v>
+        <v>-0.524026261339348</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.302064948147892</v>
+        <v>-0.30156085985224</v>
       </c>
     </row>
     <row r="45">
@@ -2194,34 +2194,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>1.11428877954142</v>
+        <v>1.11076629295298</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.683521777472102</v>
+        <v>-0.679614099701314</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.680897553019539</v>
+        <v>-0.68155122838741</v>
       </c>
       <c r="E45" t="n">
-        <v>1.12378184917966</v>
+        <v>1.12341710216703</v>
       </c>
       <c r="F45" t="n">
-        <v>0.308700447032644</v>
+        <v>0.303817860428794</v>
       </c>
       <c r="G45" t="n">
-        <v>0.525742051369725</v>
+        <v>0.516965828222052</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.507566663670494</v>
+        <v>-0.499087366072912</v>
       </c>
       <c r="K45" t="n">
-        <v>0.706387635683405</v>
+        <v>0.712484413545961</v>
       </c>
     </row>
     <row r="46">
@@ -2229,34 +2229,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.965478902772489</v>
+        <v>-0.970319758037049</v>
       </c>
       <c r="C46" t="n">
-        <v>0.149354341540584</v>
+        <v>0.155129774900549</v>
       </c>
       <c r="D46" t="n">
-        <v>0.37010224265742</v>
+        <v>0.389628079820891</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.57625871600525</v>
+        <v>-0.587988456313762</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.543853234268433</v>
+        <v>-0.550978748144148</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.556085229098391</v>
+        <v>-0.575688589037482</v>
       </c>
       <c r="H46" t="n">
-        <v>0.26753743298926</v>
+        <v>0.274163457373947</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.697949692202724</v>
+        <v>-0.703945852841521</v>
       </c>
       <c r="J46" t="n">
-        <v>0.163963161401066</v>
+        <v>0.175925399138636</v>
       </c>
       <c r="K46" t="n">
-        <v>0.205545412841016</v>
+        <v>0.208864613334774</v>
       </c>
     </row>
     <row r="47">
@@ -2264,34 +2264,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.666755605038788</v>
+        <v>-0.67140709903867</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0796531105662513</v>
+        <v>-0.0743912349117746</v>
       </c>
       <c r="D47" t="n">
-        <v>0.589939134685707</v>
+        <v>0.613685906368655</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.470185843405785</v>
+        <v>-0.481206472702092</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.365554748034794</v>
+        <v>-0.372211188178173</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0648813446740009</v>
+        <v>-0.0795686410739679</v>
       </c>
       <c r="H47" t="n">
-        <v>0.367389132117097</v>
+        <v>0.373991746171903</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.854419392220998</v>
+        <v>-0.860653636466635</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.3099119491482</v>
+        <v>-0.300407500450301</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.457732125517824</v>
+        <v>-0.458091338296258</v>
       </c>
     </row>
     <row r="48">
@@ -2299,34 +2299,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.791281944609277</v>
+        <v>-0.796012376091859</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.136631041233981</v>
+        <v>-0.131496940702401</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244669282136983</v>
+        <v>0.2617867686908</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.335654395230855</v>
+        <v>-0.345775664218999</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.394246458463196</v>
+        <v>-0.400978381735916</v>
       </c>
       <c r="G48" t="n">
-        <v>1.76843763781082</v>
+        <v>1.77209855259395</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0927969595155444</v>
+        <v>0.0994639519775251</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.828341108884619</v>
+        <v>-0.834535672529116</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.362013401093407</v>
+        <v>-0.352779180509818</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.620167441034274</v>
+        <v>-0.621427489716103</v>
       </c>
     </row>
     <row r="49">
@@ -2334,34 +2334,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.606357998393176</v>
+        <v>-0.610971206235719</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.376595787699995</v>
+        <v>-0.371999817012921</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.114792600857064</v>
+        <v>-0.104576890690127</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0780010618711209</v>
+        <v>0.0706451336595709</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0868352753017497</v>
+        <v>-0.0927584507600954</v>
       </c>
       <c r="G49" t="n">
-        <v>0.58105562804812</v>
+        <v>0.572832993880807</v>
       </c>
       <c r="H49" t="n">
-        <v>0.117759884297504</v>
+        <v>0.124421024177014</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.124227458802387</v>
+        <v>-0.129350646216106</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.354570336529806</v>
+        <v>-0.345297511929887</v>
       </c>
       <c r="K49" t="n">
-        <v>0.164936583961903</v>
+        <v>0.168030575479813</v>
       </c>
     </row>
     <row r="50">
@@ -2369,34 +2369,34 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0339236757256375</v>
+        <v>0.029716343650004</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.603898771795403</v>
+        <v>-0.59981253648108</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.550293087663671</v>
+        <v>-0.548439117971915</v>
       </c>
       <c r="E50" t="n">
-        <v>0.12773170403835</v>
+        <v>0.12070823166721</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.326615998167677</v>
+        <v>-0.333169996921235</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.110823014037454</v>
+        <v>-0.125970103555607</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.489323425511692</v>
+        <v>-0.49500214134137</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.519144764102762</v>
+        <v>-0.510725517197249</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.450963987371305</v>
+        <v>-0.451285665320431</v>
       </c>
     </row>
     <row r="51">
@@ -2404,34 +2404,34 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>1.85504851838389</v>
+        <v>1.85199560079805</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0937156357389767</v>
+        <v>0.0993662972374802</v>
       </c>
       <c r="D51" t="n">
-        <v>0.399103838749246</v>
+        <v>0.419186515290014</v>
       </c>
       <c r="E51" t="n">
-        <v>2.30524392610052</v>
+        <v>2.31277740743522</v>
       </c>
       <c r="F51" t="n">
-        <v>1.71869307379981</v>
+        <v>1.71751994383789</v>
       </c>
       <c r="G51" t="n">
-        <v>2.32234634540425</v>
+        <v>2.33155088573219</v>
       </c>
       <c r="H51" t="n">
-        <v>1.1662027251398</v>
+        <v>1.17261805655555</v>
       </c>
       <c r="I51" t="n">
-        <v>0.240868507906918</v>
+        <v>0.236300848909158</v>
       </c>
       <c r="J51" t="n">
-        <v>0.00683179839171116</v>
+        <v>0.0179790624512047</v>
       </c>
       <c r="K51" t="n">
-        <v>2.37811775787354</v>
+        <v>2.3934856385752</v>
       </c>
     </row>
     <row r="52">
@@ -2439,34 +2439,34 @@
         <v>61</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.855498125806324</v>
+        <v>-0.860269264047892</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.457923261388122</v>
+        <v>-0.453509670577319</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.107328602329591</v>
+        <v>-0.0969695811435281</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.413556152614201</v>
+        <v>-0.424198205028654</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.451629879319999</v>
+        <v>-0.458512768851402</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.330241586328523</v>
+        <v>-0.347584659382739</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0927969595155443</v>
+        <v>0.099463951977525</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0460966607272296</v>
+        <v>-0.0352239141171932</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.119325218191885</v>
+        <v>-0.117807689504915</v>
       </c>
     </row>
     <row r="53">
@@ -2474,34 +2474,34 @@
         <v>62</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.278616449010969</v>
+        <v>-0.283021900864108</v>
       </c>
       <c r="C53" t="n">
-        <v>0.534807607553472</v>
+        <v>0.541447434159355</v>
       </c>
       <c r="D53" t="n">
-        <v>0.459926826372064</v>
+        <v>0.481177322588894</v>
       </c>
       <c r="E53" t="n">
-        <v>0.964816270460138</v>
+        <v>0.963388817784233</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.240540866882473</v>
+        <v>-0.246868416248006</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.109470367620865</v>
+        <v>-0.124603919591899</v>
       </c>
       <c r="H53" t="n">
-        <v>1.39086904817743</v>
+        <v>1.39723170635095</v>
       </c>
       <c r="I53" t="n">
-        <v>2.58791400818102</v>
+        <v>2.58691760328586</v>
       </c>
       <c r="J53" t="n">
-        <v>1.116675425542</v>
+        <v>1.1335789773698</v>
       </c>
       <c r="K53" t="n">
-        <v>0.909431780078968</v>
+        <v>0.916654602820767</v>
       </c>
     </row>
     <row r="54">
@@ -2509,34 +2509,34 @@
         <v>63</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0738875361074586</v>
+        <v>0.0697055371986746</v>
       </c>
       <c r="C54" t="n">
-        <v>0.766980500252959</v>
+        <v>0.774140983182269</v>
       </c>
       <c r="D54" t="n">
-        <v>0.672026199715278</v>
+        <v>0.697349067763077</v>
       </c>
       <c r="E54" t="n">
-        <v>0.572432879949925</v>
+        <v>0.568382293041878</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.517210931727774</v>
+        <v>-0.524266354126244</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.203914072779174</v>
+        <v>-0.219992835629337</v>
       </c>
       <c r="H54" t="n">
-        <v>1.36590612339547</v>
+        <v>1.37227463415146</v>
       </c>
       <c r="I54" t="n">
-        <v>1.2579215580257</v>
+        <v>1.25490144247239</v>
       </c>
       <c r="J54" t="n">
-        <v>1.79730232952463</v>
+        <v>1.81773600417904</v>
       </c>
       <c r="K54" t="n">
-        <v>0.686083221243849</v>
+        <v>0.692067394618481</v>
       </c>
     </row>
     <row r="55">
@@ -2544,34 +2544,34 @@
         <v>64</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.954183500950494</v>
+        <v>-0.959017196038428</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.262031187789026</v>
+        <v>-0.257178301737325</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.471533381252316</v>
+        <v>-0.468167201483042</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0498299466550031</v>
+        <v>0.0422856908575558</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.402444090014167</v>
+        <v>-0.409197579895271</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.513042087770487</v>
+        <v>-0.532214663620931</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.10690643874013</v>
+        <v>-0.100192625618386</v>
       </c>
       <c r="I55" t="n">
-        <v>0.319103357916055</v>
+        <v>0.314654740721715</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.375245515873142</v>
+        <v>-0.366079924651917</v>
       </c>
       <c r="K55" t="n">
-        <v>1.15308475335364</v>
+        <v>1.16165882995053</v>
       </c>
     </row>
     <row r="56">
@@ -2579,34 +2579,34 @@
         <v>65</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.528412438465394</v>
+        <v>-0.532976236469749</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.146857849302548</v>
+        <v>-0.141746682767385</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.244959997919861</v>
+        <v>-0.237243540969723</v>
       </c>
       <c r="E56" t="n">
-        <v>0.208795525374526</v>
+        <v>0.202313975240356</v>
       </c>
       <c r="F56" t="n">
-        <v>0.441911959735938</v>
+        <v>0.437379830518316</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0720793559622811</v>
+        <v>-0.0868386914522688</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0428711099516258</v>
+        <v>0.0495498075785474</v>
       </c>
       <c r="I56" t="n">
-        <v>0.266946791243297</v>
+        <v>0.262418812846677</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.33637617870767</v>
+        <v>-0.3270089887345</v>
       </c>
       <c r="K56" t="n">
-        <v>0.591329287192586</v>
+        <v>0.596787972956905</v>
       </c>
     </row>
     <row r="57">
@@ -2614,34 +2614,34 @@
         <v>66</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.46297212314925</v>
+        <v>-1.46812834030923</v>
       </c>
       <c r="C57" t="n">
-        <v>1.27004205905437</v>
+        <v>1.27833067618839</v>
       </c>
       <c r="D57" t="n">
-        <v>0.811329734000974</v>
+        <v>0.839327271851128</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.4662359885471</v>
+        <v>-1.48391534320192</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.650422444431067</v>
+        <v>-0.657828324215766</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.39950857864259</v>
+        <v>-1.42755308269356</v>
       </c>
       <c r="H57" t="n">
-        <v>1.19116564992176</v>
+        <v>1.19757512875504</v>
       </c>
       <c r="I57" t="n">
-        <v>1.93595692477155</v>
+        <v>1.93396850484788</v>
       </c>
       <c r="J57" t="n">
-        <v>1.07532506685533</v>
+        <v>1.09201415192574</v>
       </c>
       <c r="K57" t="n">
-        <v>0.740228326415999</v>
+        <v>0.746512778425096</v>
       </c>
     </row>
     <row r="58">
@@ -2649,34 +2649,34 @@
         <v>67</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.718612430435768</v>
+        <v>-0.723296796575567</v>
       </c>
       <c r="C58" t="n">
-        <v>1.66182620625256</v>
+        <v>1.67099341386838</v>
       </c>
       <c r="D58" t="n">
-        <v>0.734510046851765</v>
+        <v>0.76103262357837</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.596955861878316</v>
+        <v>-0.608823965311161</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0750679478299453</v>
+        <v>0.0695707128871702</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.508307825312423</v>
+        <v>-0.527433019747955</v>
       </c>
       <c r="H58" t="n">
-        <v>1.39086904817743</v>
+        <v>1.39723170635095</v>
       </c>
       <c r="I58" t="n">
-        <v>2.09242662478982</v>
+        <v>2.090676288473</v>
       </c>
       <c r="J58" t="n">
-        <v>0.919020711019705</v>
+        <v>0.934899111747186</v>
       </c>
       <c r="K58" t="n">
-        <v>0.889127365639412</v>
+        <v>0.896237583893287</v>
       </c>
     </row>
     <row r="59">
@@ -2684,34 +2684,34 @@
         <v>68</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.07647990958064</v>
+        <v>-1.08139112859382</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.140770463547448</v>
+        <v>-0.135645645823942</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.423915495671114</v>
+        <v>-0.419635038161012</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.268963591862086</v>
+        <v>-0.278639024116269</v>
       </c>
       <c r="F59" t="n">
-        <v>0.876386431937448</v>
+        <v>0.872997332964142</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0864753785388417</v>
+        <v>-0.101378792208871</v>
       </c>
       <c r="H59" t="n">
-        <v>0.192648658643382</v>
+        <v>0.199292240775481</v>
       </c>
       <c r="I59" t="n">
-        <v>2.1185049081262</v>
+        <v>2.11679425241052</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.00640031638802399</v>
+        <v>0.00467831830910528</v>
       </c>
       <c r="K59" t="n">
-        <v>2.45256727748525</v>
+        <v>2.46834804130929</v>
       </c>
     </row>
     <row r="60">
@@ -2719,34 +2719,34 @@
         <v>69</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.813654127572842</v>
+        <v>-0.818398740824612</v>
       </c>
       <c r="C60" t="n">
-        <v>0.276337208391956</v>
+        <v>0.282397405540768</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.102140178721525</v>
+        <v>-0.0916815382399612</v>
       </c>
       <c r="E60" t="n">
-        <v>0.21741933615497</v>
+        <v>0.210995437322605</v>
       </c>
       <c r="F60" t="n">
-        <v>2.10603116458323</v>
+        <v>2.10587705686742</v>
       </c>
       <c r="G60" t="n">
-        <v>0.383472633624855</v>
+        <v>0.373272550610668</v>
       </c>
       <c r="H60" t="n">
-        <v>0.192648658643382</v>
+        <v>0.199292240775481</v>
       </c>
       <c r="I60" t="n">
-        <v>1.44046954138035</v>
+        <v>1.43772719003503</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.0386535961636285</v>
+        <v>-0.0277422455372622</v>
       </c>
       <c r="K60" t="n">
-        <v>2.00587015981501</v>
+        <v>2.01917362490472</v>
       </c>
     </row>
     <row r="61">
@@ -2754,34 +2754,34 @@
         <v>70</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.750297854385469</v>
+        <v>-0.755002305975571</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.181190704961308</v>
+        <v>-0.176156531128403</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.278983649688842</v>
+        <v>-0.271920457097135</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.198248343462443</v>
+        <v>-0.207451035041823</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0771173557176883</v>
+        <v>0.071625512427009</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.186474595765286</v>
+        <v>-0.202378820954393</v>
       </c>
       <c r="H61" t="n">
-        <v>0.242574508207301</v>
+        <v>0.249206385174458</v>
       </c>
       <c r="I61" t="n">
-        <v>0.814590741307255</v>
+        <v>0.810896055534573</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.21397911699512</v>
+        <v>-0.20397710542008</v>
       </c>
       <c r="K61" t="n">
-        <v>1.57270931843781</v>
+        <v>1.5836105544518</v>
       </c>
     </row>
     <row r="62">
@@ -2789,34 +2789,34 @@
         <v>71</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.681767558428021</v>
+        <v>-0.686428568533612</v>
       </c>
       <c r="C62" t="n">
-        <v>0.509727578242463</v>
+        <v>0.51631116195237</v>
       </c>
       <c r="D62" t="n">
-        <v>0.830777863144904</v>
+        <v>0.859148810930422</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.247978985629672</v>
+        <v>-0.257514133049462</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.140119880383067</v>
+        <v>-0.146183238795904</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0438670164162698</v>
+        <v>-0.0583439973520828</v>
       </c>
       <c r="H62" t="n">
-        <v>0.442277906462975</v>
+        <v>0.448862962770369</v>
       </c>
       <c r="I62" t="n">
-        <v>0.214790224570539</v>
+        <v>0.210182884971639</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.205709045257785</v>
+        <v>-0.195664140331268</v>
       </c>
       <c r="K62" t="n">
-        <v>1.02449012856979</v>
+        <v>1.03235104340982</v>
       </c>
     </row>
     <row r="63">
@@ -2824,34 +2824,34 @@
         <v>72</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.448863660214489</v>
+        <v>-0.453377032097522</v>
       </c>
       <c r="C63" t="n">
-        <v>1.90495639331122</v>
+        <v>1.91466882938949</v>
       </c>
       <c r="D63" t="n">
-        <v>2.94138910977004</v>
+        <v>3.0102844289924</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.59846775384724</v>
+        <v>-1.61703109512974</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.24065191610104</v>
+        <v>-1.24961059168934</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.44414591039005</v>
+        <v>-1.47263715349591</v>
       </c>
       <c r="H63" t="n">
-        <v>3.38790303073418</v>
+        <v>3.39379748231006</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.958732525566513</v>
+        <v>-0.96512549221671</v>
       </c>
       <c r="J63" t="n">
-        <v>3.2826072135499</v>
+        <v>3.3107445341297</v>
       </c>
       <c r="K63" t="n">
-        <v>0.943272470811562</v>
+        <v>0.950682967699902</v>
       </c>
     </row>
     <row r="64">
@@ -2859,34 +2859,34 @@
         <v>73</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.13789774606824</v>
+        <v>-1.14284789796439</v>
       </c>
       <c r="C64" t="n">
-        <v>0.752249026725619</v>
+        <v>0.759376473779137</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16747553755856</v>
+        <v>1.20231118207195</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.59358092773832</v>
+        <v>-1.6121115999498</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.22630606088684</v>
+        <v>-1.23522699491047</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.65259838494662</v>
+        <v>-1.68317586076013</v>
       </c>
       <c r="H64" t="n">
-        <v>2.33946018989189</v>
+        <v>2.34560044993152</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.254618875484282</v>
+        <v>-0.2599404659037</v>
       </c>
       <c r="J64" t="n">
-        <v>2.73182043584342</v>
+        <v>2.75710105921481</v>
       </c>
       <c r="K64" t="n">
-        <v>0.286763070599241</v>
+        <v>0.290532689044696</v>
       </c>
     </row>
     <row r="65">
@@ -2894,34 +2894,34 @@
         <v>74</v>
       </c>
       <c r="B65" t="n">
-        <v>0.399238832717012</v>
+        <v>0.395263074611868</v>
       </c>
       <c r="C65" t="n">
-        <v>1.35770041392779</v>
+        <v>1.36618560817397</v>
       </c>
       <c r="D65" t="n">
-        <v>1.88242339197743</v>
+        <v>1.93098625056531</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0078607341901745</v>
+        <v>0.0000359087239413617</v>
       </c>
       <c r="F65" t="n">
-        <v>0.128352552911263</v>
+        <v>0.122995500922979</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.431400214769187</v>
+        <v>-0.449755702954297</v>
       </c>
       <c r="H65" t="n">
-        <v>1.89012754381662</v>
+        <v>1.89637315034072</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.437166858838934</v>
+        <v>-0.442766213466333</v>
       </c>
       <c r="J65" t="n">
-        <v>3.0576612622944</v>
+        <v>3.08463188371401</v>
       </c>
       <c r="K65" t="n">
-        <v>0.543952320166954</v>
+        <v>0.549148262126117</v>
       </c>
     </row>
     <row r="66">
@@ -2929,34 +2929,34 @@
         <v>75</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.132811029879043</v>
+        <v>-0.137124055400613</v>
       </c>
       <c r="C66" t="n">
-        <v>1.69189789188275</v>
+        <v>1.70113253636899</v>
       </c>
       <c r="D66" t="n">
-        <v>1.95912182792276</v>
+        <v>2.00915731957456</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.533427122462377</v>
+        <v>-0.544870527971922</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.492618037074858</v>
+        <v>-0.499608759648178</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.947434822698115</v>
+        <v>-0.970954885108728</v>
       </c>
       <c r="H66" t="n">
-        <v>1.26605442426763</v>
+        <v>1.2724463453535</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="J66" t="n">
-        <v>2.84512041864491</v>
+        <v>2.87098868093154</v>
       </c>
       <c r="K66" t="n">
-        <v>0.489807214994804</v>
+        <v>0.494702878319502</v>
       </c>
     </row>
     <row r="67">
@@ -2964,34 +2964,34 @@
         <v>76</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.51797708634436</v>
+        <v>-1.52316817125478</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03251226689039</v>
+        <v>1.04026821465525</v>
       </c>
       <c r="D67" t="n">
-        <v>2.00125803117022</v>
+        <v>2.05210255061152</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.98567685788919</v>
+        <v>-2.00682874262275</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.34517171837594</v>
+        <v>-1.35440536822112</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.74936091253337</v>
+        <v>-1.78090680644963</v>
       </c>
       <c r="H67" t="n">
-        <v>1.04138810123</v>
+        <v>1.0478326955581</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.854419392220998</v>
+        <v>-0.860653636466635</v>
       </c>
       <c r="J67" t="n">
-        <v>2.65987081172861</v>
+        <v>2.68477826294215</v>
       </c>
       <c r="K67" t="n">
-        <v>0.361212590210948</v>
+        <v>0.365395091778792</v>
       </c>
     </row>
     <row r="68">
@@ -2999,34 +2999,34 @@
         <v>77</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.4888276622876</v>
+        <v>-1.49400026932285</v>
       </c>
       <c r="C68" t="n">
-        <v>0.614308865515069</v>
+        <v>0.62112697664072</v>
       </c>
       <c r="D68" t="n">
-        <v>0.457107030932898</v>
+        <v>0.478303386228259</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.25897706945709</v>
+        <v>-1.27527087115852</v>
       </c>
       <c r="F68" t="n">
-        <v>0.665297419499922</v>
+        <v>0.661352980360745</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.35506448209751</v>
+        <v>-1.38266418102888</v>
       </c>
       <c r="H68" t="n">
-        <v>0.816721778192366</v>
+        <v>0.823219045762702</v>
       </c>
       <c r="I68" t="n">
-        <v>1.38831297470759</v>
+        <v>1.38549126215999</v>
       </c>
       <c r="J68" t="n">
-        <v>1.41026297221737</v>
+        <v>1.42868923802263</v>
       </c>
       <c r="K68" t="n">
-        <v>1.26137496369794</v>
+        <v>1.27054959756376</v>
       </c>
     </row>
     <row r="69">
@@ -3034,34 +3034,34 @@
         <v>78</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.18514896246425</v>
+        <v>-1.19012906699604</v>
       </c>
       <c r="C69" t="n">
-        <v>1.38533714525595</v>
+        <v>1.3938843158972</v>
       </c>
       <c r="D69" t="n">
-        <v>1.39606225483458</v>
+        <v>1.43528683314676</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.15807848332589</v>
+        <v>-1.1736977647962</v>
       </c>
       <c r="F69" t="n">
-        <v>1.89494215214571</v>
+        <v>1.89423270426403</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.15187766680551</v>
+        <v>-1.17744383276624</v>
       </c>
       <c r="H69" t="n">
-        <v>1.11627687557588</v>
+        <v>1.12270391215657</v>
       </c>
       <c r="I69" t="n">
-        <v>1.20576499135294</v>
+        <v>1.20266551459736</v>
       </c>
       <c r="J69" t="n">
-        <v>1.55912426348939</v>
+        <v>1.57832260962125</v>
       </c>
       <c r="K69" t="n">
-        <v>0.814677846027705</v>
+        <v>0.821375181159191</v>
       </c>
     </row>
     <row r="70">
@@ -3069,34 +3069,34 @@
         <v>79</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.749131877423199</v>
+        <v>-0.753835589898293</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.0447115163319813</v>
+        <v>-0.0393712828564121</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.311391558671181</v>
+        <v>-0.304950607689904</v>
       </c>
       <c r="E70" t="n">
-        <v>0.288996965632657</v>
+        <v>0.283051572605277</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.0786376437507778</v>
+        <v>-0.0845392526007402</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.154928948978393</v>
+        <v>-0.170517459229356</v>
       </c>
       <c r="H70" t="n">
-        <v>0.342426207335138</v>
+        <v>0.349034673972414</v>
       </c>
       <c r="I70" t="n">
-        <v>0.736355891298118</v>
+        <v>0.732542163722017</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.112257234625905</v>
+        <v>-0.10172763482769</v>
       </c>
       <c r="K70" t="n">
-        <v>1.58624559473085</v>
+        <v>1.59722190040345</v>
       </c>
     </row>
     <row r="71">
@@ -3104,34 +3104,34 @@
         <v>80</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.078767997677806</v>
+        <v>-0.0830467652188225</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0669311384165398</v>
+        <v>0.0725217346863313</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.458807644435358</v>
+        <v>-0.455197126687499</v>
       </c>
       <c r="E71" t="n">
-        <v>0.671031783206337</v>
+        <v>0.667640342848932</v>
       </c>
       <c r="F71" t="n">
-        <v>0.601765774979889</v>
+        <v>0.597654194625742</v>
       </c>
       <c r="G71" t="n">
-        <v>0.239802260662804</v>
+        <v>0.228164296751158</v>
       </c>
       <c r="H71" t="n">
-        <v>0.592055455154731</v>
+        <v>0.598605395967302</v>
       </c>
       <c r="I71" t="n">
-        <v>0.971060441325529</v>
+        <v>0.967603839159687</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.173455765482181</v>
+        <v>-0.163243576484901</v>
       </c>
       <c r="K71" t="n">
-        <v>1.30875193072358</v>
+        <v>1.31818930839455</v>
       </c>
     </row>
     <row r="72">
@@ -3139,34 +3139,34 @@
         <v>81</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.0200756323395149</v>
+        <v>-0.0243171946788892</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.61229936413744</v>
+        <v>-0.608231967463031</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.776291232726536</v>
+        <v>-0.778776495467665</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.171801990402414</v>
+        <v>-0.180827884656258</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.57664376047232</v>
+        <v>-0.583855540781569</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.594828887173565</v>
+        <v>-0.61482000114082</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.980608806108708</v>
+        <v>-0.973690152600497</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.697949692202724</v>
+        <v>-0.703945852841521</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.617558617777042</v>
+        <v>-0.609649801754114</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.64723999362035</v>
+        <v>-0.64865018161941</v>
       </c>
     </row>
     <row r="73">
@@ -3174,34 +3174,34 @@
         <v>82</v>
       </c>
       <c r="B73" t="n">
-        <v>0.250401873483183</v>
+        <v>0.246331767347453</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.601220322063159</v>
+        <v>-0.597128080225965</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.823181611084433</v>
+        <v>-0.826567183208651</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.444601871423801</v>
+        <v>-0.455451468524752</v>
       </c>
       <c r="F73" t="n">
-        <v>0.91942399758005</v>
+        <v>0.916148123300757</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.544056337750863</v>
+        <v>-0.563539310217369</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.980608806108708</v>
+        <v>-0.973690152600496</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.80226282554824</v>
+        <v>-0.808417708591597</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.630790732556778</v>
+        <v>-0.622950545896213</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.958574348360213</v>
+        <v>-0.961711138507445</v>
       </c>
     </row>
     <row r="74">
@@ -3209,34 +3209,34 @@
         <v>83</v>
       </c>
       <c r="B74" t="n">
-        <v>0.191199393223899</v>
+        <v>0.187091758523711</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.647484453801914</v>
+        <v>-0.643495960996132</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.468860215175986</v>
+        <v>-0.46544270981316</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.114597378892134</v>
+        <v>-0.123240852844002</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.12167520939338</v>
+        <v>-0.127690042937355</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0368139315297668</v>
+        <v>-0.0512203238270361</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.575381251916636</v>
+        <v>-0.567253679801172</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.75553020396465</v>
+        <v>-0.75754094923264</v>
       </c>
     </row>
     <row r="75">
@@ -3244,34 +3244,34 @@
         <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.0208335173649907</v>
+        <v>-0.0250755601291193</v>
       </c>
       <c r="C75" t="n">
-        <v>2.35773614577551</v>
+        <v>2.36846395724278</v>
       </c>
       <c r="D75" t="n">
-        <v>1.50538290421562</v>
+        <v>1.54670647191219</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.0384203836648764</v>
+        <v>-0.046554604450798</v>
       </c>
       <c r="F75" t="n">
-        <v>0.558728209337287</v>
+        <v>0.554503404289128</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.502510769241325</v>
+        <v>-0.521577945617779</v>
       </c>
       <c r="H75" t="n">
-        <v>1.34094319861351</v>
+        <v>1.34731756195197</v>
       </c>
       <c r="I75" t="n">
-        <v>0.579886191279844</v>
+        <v>0.575834380096903</v>
       </c>
       <c r="J75" t="n">
-        <v>1.78076218604996</v>
+        <v>1.80111007400141</v>
       </c>
       <c r="K75" t="n">
-        <v>0.408589557236579</v>
+        <v>0.41303480260958</v>
       </c>
     </row>
     <row r="76">
@@ -3279,34 +3279,34 @@
         <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>0.35910007579085</v>
+        <v>0.355098873651606</v>
       </c>
       <c r="C76" t="n">
-        <v>2.68608973340556</v>
+        <v>2.69755388997209</v>
       </c>
       <c r="D76" t="n">
-        <v>1.73550359021055</v>
+        <v>1.78124554436718</v>
       </c>
       <c r="E76" t="n">
-        <v>0.134055831944009</v>
+        <v>0.127074637194193</v>
       </c>
       <c r="F76" t="n">
-        <v>0.185735973768066</v>
+        <v>0.180529888038466</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.324734383060979</v>
+        <v>-0.342022338959072</v>
       </c>
       <c r="H76" t="n">
-        <v>1.29101734904959</v>
+        <v>1.29740341755299</v>
       </c>
       <c r="I76" t="n">
-        <v>0.345181641252434</v>
+        <v>0.340772704659233</v>
       </c>
       <c r="J76" t="n">
-        <v>1.67986731085448</v>
+        <v>1.69969189991791</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0566463736176028</v>
+        <v>0.0591398078665832</v>
       </c>
     </row>
     <row r="77">
@@ -3314,34 +3314,34 @@
         <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.274025414722029</v>
+        <v>-0.27842795630983</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.412389615939979</v>
+        <v>-0.407873914240365</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.443507434382442</v>
+        <v>-0.439603147994698</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.220670251491598</v>
+        <v>-0.230022836455672</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.322517182392192</v>
+        <v>-0.329060397841558</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.398453612765112</v>
+        <v>-0.416479364981134</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.531276160033439</v>
+        <v>-0.524462853009697</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.463245142175313</v>
+        <v>-0.468884177403852</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.492680534543292</v>
+        <v>-0.48412402891305</v>
       </c>
       <c r="K77" t="n">
-        <v>0.252922379866647</v>
+        <v>0.256504324165562</v>
       </c>
     </row>
     <row r="78">
@@ -3349,34 +3349,34 @@
         <v>87</v>
       </c>
       <c r="B78" t="n">
-        <v>1.68018112346738</v>
+        <v>1.67701735710843</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.427851575757931</v>
+        <v>-0.423370548076711</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.595502867939825</v>
+        <v>-0.594516939641964</v>
       </c>
       <c r="E78" t="n">
-        <v>0.881740226608525</v>
+        <v>0.879757399725229</v>
       </c>
       <c r="F78" t="n">
-        <v>1.67155669238172</v>
+        <v>1.6702595544216</v>
       </c>
       <c r="G78" t="n">
-        <v>1.57104787858992</v>
+        <v>1.57273327846148</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="I78" t="n">
-        <v>0.136555374561402</v>
+        <v>0.131828993159083</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.563803151484368</v>
+        <v>-0.555615528676835</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.25468798112226</v>
+        <v>-0.253921149021452</v>
       </c>
     </row>
     <row r="79">
@@ -3384,34 +3384,34 @@
         <v>88</v>
       </c>
       <c r="B79" t="n">
-        <v>0.722170727129854</v>
+        <v>0.718399676164712</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.427486332612625</v>
+        <v>-0.423004485860104</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.773694201127064</v>
+        <v>-0.776129600079521</v>
       </c>
       <c r="E79" t="n">
-        <v>0.554897798029688</v>
+        <v>0.550729986807971</v>
       </c>
       <c r="F79" t="n">
-        <v>0.118105513472548</v>
+        <v>0.112721503223785</v>
       </c>
       <c r="G79" t="n">
-        <v>0.292845323713353</v>
+        <v>0.281738225042262</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.463245142175313</v>
+        <v>-0.468884177403852</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.5497440295309</v>
+        <v>-0.541483488025854</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.14639777077796</v>
+        <v>-0.145030381408222</v>
       </c>
     </row>
     <row r="80">
@@ -3419,34 +3419,34 @@
         <v>89</v>
       </c>
       <c r="B80" t="n">
-        <v>0.728029761365263</v>
+        <v>0.724262424453029</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.226359107264144</v>
+        <v>-0.221426225248749</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.178274655579016</v>
+        <v>-0.169277819977085</v>
       </c>
       <c r="E80" t="n">
-        <v>1.64724716355263</v>
+        <v>1.65038185055958</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.107329354179179</v>
+        <v>-0.113306446158483</v>
       </c>
       <c r="G80" t="n">
-        <v>1.11481956579449</v>
+        <v>1.11193894441669</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.13186936352209</v>
+        <v>-0.125149697817875</v>
       </c>
       <c r="I80" t="n">
-        <v>0.371259924588813</v>
+        <v>0.366890668596752</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.510874692365427</v>
+        <v>-0.502412552108437</v>
       </c>
       <c r="K80" t="n">
-        <v>1.59978187102388</v>
+        <v>1.61083324635511</v>
       </c>
     </row>
     <row r="81">
@@ -3454,34 +3454,34 @@
         <v>90</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.0571099756036315</v>
+        <v>-0.0613750140834014</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.335323312280422</v>
+        <v>-0.330634786536378</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.399081557238376</v>
+        <v>-0.394324280632906</v>
       </c>
       <c r="E81" t="n">
-        <v>0.663557813863286</v>
+        <v>0.660116409044316</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.211849156454071</v>
+        <v>-0.218101222690262</v>
       </c>
       <c r="G81" t="n">
-        <v>0.316130165598931</v>
+        <v>0.305256106131799</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.306609836995805</v>
+        <v>-0.299849203214297</v>
       </c>
       <c r="I81" t="n">
-        <v>0.266946791243297</v>
+        <v>0.262418812846677</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.514182721060361</v>
+        <v>-0.505737738143962</v>
       </c>
       <c r="K81" t="n">
-        <v>1.42381027921439</v>
+        <v>1.43388574898361</v>
       </c>
     </row>
     <row r="82">
@@ -3489,34 +3489,34 @@
         <v>91</v>
       </c>
       <c r="B82" t="n">
-        <v>0.132142660084898</v>
+        <v>0.127997589209629</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.54180743709339</v>
+        <v>-0.537581959657962</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.536586062033883</v>
+        <v>-0.534468913322873</v>
       </c>
       <c r="E82" t="n">
-        <v>0.670169402128293</v>
+        <v>0.666772196640707</v>
       </c>
       <c r="F82" t="n">
-        <v>0.562827025112773</v>
+        <v>0.558613003368805</v>
       </c>
       <c r="G82" t="n">
-        <v>0.337579273061994</v>
+        <v>0.326919880413447</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.0459926087932503</v>
+        <v>-0.0509967544035496</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.529895857361297</v>
+        <v>-0.521532371812705</v>
       </c>
       <c r="K82" t="n">
-        <v>1.01772199042327</v>
+        <v>1.025545370434</v>
       </c>
     </row>
     <row r="83">
@@ -3524,34 +3524,34 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>0.249935482698275</v>
+        <v>0.245865080916542</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.385970361762848</v>
+        <v>-0.381395413905823</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.492648009500793</v>
+        <v>-0.48968723695147</v>
       </c>
       <c r="E83" t="n">
-        <v>0.744334174840114</v>
+        <v>0.741432770548053</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.17700922236244</v>
+        <v>-0.183169630513003</v>
       </c>
       <c r="G83" t="n">
-        <v>0.373376094301026</v>
+        <v>0.363074963167279</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="I83" t="n">
-        <v>1.49262610805311</v>
+        <v>1.48996311791006</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.510047685191694</v>
+        <v>-0.501581255599556</v>
       </c>
       <c r="K83" t="n">
-        <v>1.59978187102388</v>
+        <v>1.61083324635511</v>
       </c>
     </row>
     <row r="84">
@@ -3559,34 +3559,34 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.56894485430761</v>
+        <v>-1.57416824778275</v>
       </c>
       <c r="C84" t="n">
-        <v>0.434365742594333</v>
+        <v>0.440780324592547</v>
       </c>
       <c r="D84" t="n">
-        <v>1.76804966916941</v>
+        <v>1.81441651784162</v>
       </c>
       <c r="E84" t="n">
-        <v>-2.21736990752379</v>
+        <v>-2.24007069056585</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.68742283562901</v>
+        <v>-1.6975568913742</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.69655939348578</v>
+        <v>-1.72757683958062</v>
       </c>
       <c r="H84" t="n">
-        <v>0.866647627756284</v>
+        <v>0.87313319016168</v>
       </c>
       <c r="I84" t="n">
-        <v>-1.14128050892117</v>
+        <v>-1.14795123977934</v>
       </c>
       <c r="J84" t="n">
-        <v>1.09765426054613</v>
+        <v>1.11445915766553</v>
       </c>
       <c r="K84" t="n">
-        <v>-1.42557588047001</v>
+        <v>-1.4313025738395</v>
       </c>
     </row>
     <row r="85">
@@ -3594,34 +3594,34 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.35160674854039</v>
+        <v>-1.35669237097831</v>
       </c>
       <c r="C85" t="n">
-        <v>1.26139797128212</v>
+        <v>1.2696672037287</v>
       </c>
       <c r="D85" t="n">
-        <v>1.97457994652027</v>
+        <v>2.02491223870356</v>
       </c>
       <c r="E85" t="n">
-        <v>-2.06789052066276</v>
+        <v>-2.08959201447353</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.55216191503798</v>
+        <v>-1.56194012174484</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.66037610184201</v>
+        <v>-1.69103141855145</v>
       </c>
       <c r="H85" t="n">
-        <v>1.04138810123</v>
+        <v>1.0478326955581</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="J85" t="n">
-        <v>0.678361623463271</v>
+        <v>0.692991827662752</v>
       </c>
       <c r="K85" t="n">
-        <v>-1.7842872022355</v>
+        <v>-1.79200324155832</v>
       </c>
     </row>
     <row r="86">
@@ -3629,34 +3629,34 @@
         <v>95</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.50220724792965</v>
+        <v>-1.5073883363096</v>
       </c>
       <c r="C86" t="n">
-        <v>1.14634638051075</v>
+        <v>1.15435760549763</v>
       </c>
       <c r="D86" t="n">
-        <v>3.10298312700234</v>
+        <v>3.17498110001126</v>
       </c>
       <c r="E86" t="n">
-        <v>-2.4162924761927</v>
+        <v>-2.44032308259641</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.61569355955801</v>
+        <v>-1.62563890747984</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.50989418799642</v>
+        <v>-1.53904345258898</v>
       </c>
       <c r="H86" t="n">
-        <v>0.941536402102162</v>
+        <v>0.948004406760147</v>
       </c>
       <c r="I86" t="n">
-        <v>-1.24559364226668</v>
+        <v>-1.25242309552942</v>
       </c>
       <c r="J86" t="n">
-        <v>0.791661606264754</v>
+        <v>0.806879449379479</v>
       </c>
       <c r="K86" t="n">
-        <v>-1.79782347852854</v>
+        <v>-1.80561458750998</v>
       </c>
     </row>
     <row r="87">
@@ -3664,34 +3664,34 @@
         <v>96</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.257934932642696</v>
+        <v>-0.262327274443406</v>
       </c>
       <c r="C87" t="n">
-        <v>3.18184642930085</v>
+        <v>3.19442233864608</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30741352581807</v>
+        <v>1.34493602184114</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.411543930098764</v>
+        <v>-0.422172530542795</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.453679287207742</v>
+        <v>-0.460567568391241</v>
       </c>
       <c r="G87" t="n">
-        <v>0.266710262592818</v>
+        <v>0.255341599172055</v>
       </c>
       <c r="H87" t="n">
-        <v>1.74034999512486</v>
+        <v>1.74663071714379</v>
       </c>
       <c r="I87" t="n">
-        <v>2.48360087483551</v>
+        <v>2.48244574753578</v>
       </c>
       <c r="J87" t="n">
-        <v>0.483187930462177</v>
+        <v>0.496805851566785</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.586326750301681</v>
+        <v>-0.587399124836968</v>
       </c>
     </row>
     <row r="88">
@@ -3699,34 +3699,34 @@
         <v>97</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0231383888246353</v>
+        <v>0.0189242199351912</v>
       </c>
       <c r="C88" t="n">
-        <v>2.96367452383809</v>
+        <v>2.97576117459309</v>
       </c>
       <c r="D88" t="n">
-        <v>1.18903851328187</v>
+        <v>1.22428817342172</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.109423092423867</v>
+        <v>-0.118031975594653</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.0765882358630347</v>
+        <v>-0.0824844530609013</v>
       </c>
       <c r="G88" t="n">
-        <v>0.722503796182917</v>
+        <v>0.715696802657082</v>
       </c>
       <c r="H88" t="n">
-        <v>2.16471971641817</v>
+        <v>2.1709009445351</v>
       </c>
       <c r="I88" t="n">
-        <v>2.45752259149913</v>
+        <v>2.45632778359826</v>
       </c>
       <c r="J88" t="n">
-        <v>0.439356550254305</v>
+        <v>0.452747136596081</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.430659572931749</v>
+        <v>-0.430868646392951</v>
       </c>
     </row>
     <row r="89">
@@ -3734,34 +3734,34 @@
         <v>98</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.633175468525398</v>
+        <v>-0.637805676013091</v>
       </c>
       <c r="C89" t="n">
-        <v>0.646328514586891</v>
+        <v>0.65321843096323</v>
       </c>
       <c r="D89" t="n">
-        <v>1.46471581439196</v>
+        <v>1.50525856171912</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.491745370356896</v>
+        <v>-0.502910127907716</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.27344244230493</v>
+        <v>-1.28248738432676</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.46313909675845</v>
+        <v>-0.481812233817006</v>
       </c>
       <c r="H89" t="n">
-        <v>0.467240831244935</v>
+        <v>0.473820034969858</v>
       </c>
       <c r="I89" t="n">
-        <v>0.214790224570539</v>
+        <v>0.210182884971639</v>
       </c>
       <c r="J89" t="n">
-        <v>0.288841244634817</v>
+        <v>0.301451171979699</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.924733657627619</v>
+        <v>-0.927682773628311</v>
       </c>
     </row>
     <row r="90">
@@ -3769,34 +3769,34 @@
         <v>99</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.42636044653396</v>
+        <v>-1.43149345548273</v>
       </c>
       <c r="C90" t="n">
-        <v>0.512406027974706</v>
+        <v>0.518995618207485</v>
       </c>
       <c r="D90" t="n">
-        <v>1.25829550906323</v>
+        <v>1.29487492437526</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.84280905929316</v>
+        <v>-1.86300585412681</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.57060658602766</v>
+        <v>-1.58043331760339</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.63370964391496</v>
+        <v>-1.66409807755264</v>
       </c>
       <c r="H90" t="n">
-        <v>0.966499326884122</v>
+        <v>0.972961478959636</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.332853725493419</v>
+        <v>-0.338294357716257</v>
       </c>
       <c r="J90" t="n">
-        <v>1.33004327636523</v>
+        <v>1.34805347666115</v>
       </c>
       <c r="K90" t="n">
-        <v>-1.30374939383267</v>
+        <v>-1.30880046027462</v>
       </c>
     </row>
     <row r="91">
@@ -3804,34 +3804,34 @@
         <v>100</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.910211594760867</v>
+        <v>-0.915017415974117</v>
       </c>
       <c r="C91" t="n">
-        <v>2.31293298661798</v>
+        <v>2.32356032533904</v>
       </c>
       <c r="D91" t="n">
-        <v>1.12664771939487</v>
+        <v>1.16069945750633</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.922360988660412</v>
+        <v>-0.936404467881377</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.09514395607129</v>
+        <v>-1.10371982436079</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.787532692736989</v>
+        <v>-0.809452423684728</v>
       </c>
       <c r="H91" t="n">
-        <v>1.04138810123</v>
+        <v>1.0478326955581</v>
       </c>
       <c r="I91" t="n">
-        <v>1.36223469137121</v>
+        <v>1.35937329822247</v>
       </c>
       <c r="J91" t="n">
-        <v>0.576639741094057</v>
+        <v>0.590742357070363</v>
       </c>
       <c r="K91" t="n">
-        <v>-1.08040083499755</v>
+        <v>-1.08421325207233</v>
       </c>
     </row>
     <row r="92">
@@ -3839,34 +3839,34 @@
         <v>101</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.728581533463181</v>
+        <v>-0.733272219036286</v>
       </c>
       <c r="C92" t="n">
-        <v>1.95036829104426</v>
+        <v>1.96018256498758</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12734984845922</v>
+        <v>1.16141506766012</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.94593273812696</v>
+        <v>-0.960133797572859</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.590989615686521</v>
+        <v>-0.598239137560441</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.287488297804173</v>
+        <v>-0.304403487672697</v>
       </c>
       <c r="H92" t="n">
-        <v>1.04138810123</v>
+        <v>1.0478326955581</v>
       </c>
       <c r="I92" t="n">
-        <v>2.30105289148085</v>
+        <v>2.29961999997315</v>
       </c>
       <c r="J92" t="n">
-        <v>0.575812733920324</v>
+        <v>0.589911060561482</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.782602756550725</v>
+        <v>-0.784763641135947</v>
       </c>
     </row>
   </sheetData>

--- a/data/z2-pXRF.xlsx
+++ b/data/z2-pXRF.xlsx
@@ -12,26 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
   <si>
-    <t xml:space="preserve">MgO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al2O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ti</t>
   </si>
   <si>
@@ -47,13 +32,109 @@
     <t xml:space="preserve">Cu</t>
   </si>
   <si>
-    <t xml:space="preserve">Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P9</t>
   </si>
   <si>
     <t xml:space="preserve">PP-1</t>
@@ -464,862 +545,1224 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.356721748418224</v>
+        <v>-1.15312447015512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.405927797897012</v>
+        <v>-0.886434353199577</v>
       </c>
       <c r="D2" t="n">
-        <v>0.135812030467924</v>
+        <v>-0.304681488770814</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.415764069467196</v>
+        <v>-1.34232517055338</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.726957211669102</v>
+        <v>-0.177056731794084</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.703608693337985</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.966545897936769</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.513654484484679</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.000000000000000175767242196108</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.25500910338031</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0587182516441987</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.333791306669882</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-0.528578752200144</v>
+        <v>-0.40145089300347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.271714188349666</v>
+        <v>-1.25539832438118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.254066144566188</v>
+        <v>-1.05609785941959</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.222141339777391</v>
+        <v>-0.677192341241002</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.271867814536876</v>
+        <v>-0.877516987446998</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.603540968734905</v>
+        <v>-0.205963233007949</v>
       </c>
       <c r="G3" t="n">
-        <v>0.416651451324552</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.363664318155262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.271067662936199</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.458795535913844</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.69125217748481</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.443424038278605</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.727012366935602</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.564279597197277</v>
+        <v>-0.565145434398382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.770901331586073</v>
+        <v>-1.0966286110711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229022292964263</v>
+        <v>-0.932928679423329</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.532068447985324</v>
+        <v>0.0490134216623944</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0962015691226879</v>
+        <v>-1.34232517055338</v>
       </c>
       <c r="F4" t="n">
-        <v>0.568701280610491</v>
+        <v>-0.205963233007949</v>
       </c>
       <c r="G4" t="n">
-        <v>1.06726897561377</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.335946274927083</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.231796809505126</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-0.764659226523074</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-0.264206050146157</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-0.941516793605257</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.0464948502976239</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-0.583752785377531</v>
+        <v>-0.335193578629339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.12690647724748</v>
+        <v>-1.11152462536335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0616014807658593</v>
+        <v>-0.900301082073328</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.305887411877728</v>
+        <v>-0.30888147583264</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.503228312247294</v>
+        <v>0.981715744978539</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.429158968112179</v>
+        <v>-0.194400632522403</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.905612371300456</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-1.15816712724469</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.00912541260778745</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.382329613261537</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-0.258074752302259</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-0.133634641673004</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.103408424809767</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.538315346290272</v>
+        <v>-0.405348382084302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.783368100910723</v>
+        <v>-1.12006258477476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.482977605165914</v>
+        <v>-0.95332092776708</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.177536004823153</v>
+        <v>-0.0588982459127789</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.216850117801821</v>
+        <v>0.795792471735985</v>
       </c>
       <c r="F6" t="n">
-        <v>0.644966998164823</v>
+        <v>-0.211744533250722</v>
       </c>
       <c r="G6" t="n">
-        <v>0.366947076305395</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.361532160983864</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.00930694850550324</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.305863690609229</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.26376211365879</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.90530602748935</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.4565409129549</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.198420273196006</v>
+        <v>-0.436528294730952</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0539915356572028</v>
+        <v>-1.12115253704005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.400386179670203</v>
+        <v>-0.934560059290829</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.299978537825025</v>
+        <v>0.35034849339151</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0892722506734051</v>
+        <v>-0.598632077583167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.577782348501927</v>
+        <v>-0.101899828638034</v>
       </c>
       <c r="G7" t="n">
-        <v>0.862716355342627</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0118583848745269</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.303725391090898</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.955824033153842</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-0.207491545090101</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-1.09539910825902</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.331166202084728</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-0.540479033865855</v>
+        <v>-0.393655914841808</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.37250681110044</v>
+        <v>-1.00779750145025</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.418920761247254</v>
+        <v>-0.863595035054575</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.429662773613293</v>
+        <v>0.584987770578835</v>
       </c>
       <c r="E8" t="n">
-        <v>0.806667616858892</v>
+        <v>0.0520993787657707</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.322105266032758</v>
+        <v>-0.223307133736268</v>
       </c>
       <c r="G8" t="n">
-        <v>0.161757220457081</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.395383634862567</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.662308967921293</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-0.0764659226523074</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-0.178367880331585</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-0.172105220336445</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.437270533055598</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-0.523169533261185</v>
+        <v>-0.424835827488458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0541315552990958</v>
+        <v>-1.19163611686192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.531040486325354</v>
+        <v>-1.01776043253333</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00386198583237875</v>
+        <v>-0.423625122361716</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.285911718483979</v>
+        <v>-0.319747167719337</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0930581506586853</v>
+        <v>-0.136587630094673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.354202364762022</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.414836090268824</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.428696130387788</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.03228995580615</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-0.0680045191414213</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.674247510259248</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.626120121209529</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.12617714914457</v>
+        <v>-0.417040849326795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.608349526158983</v>
+        <v>-1.04939734624202</v>
       </c>
       <c r="C10" t="n">
-        <v>0.720333639386648</v>
+        <v>-0.915799190814578</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.441436094094242</v>
+        <v>0.52305196137378</v>
       </c>
       <c r="E10" t="n">
-        <v>1.54628841218846</v>
+        <v>0.795792471735985</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.603313315992577</v>
+        <v>-0.211744533250722</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.94703268381642</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.299436562149639</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.840064726243716</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0764659226523072</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.227418263082769</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.020247672980758</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.0620167342554811</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-0.544806409017023</v>
+        <v>-0.405348382084302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303176286264975</v>
+        <v>-0.981820305794249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.440989190139708</v>
+        <v>-0.782026041679571</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00711163740835498</v>
+        <v>0.536995918419041</v>
       </c>
       <c r="E11" t="n">
-        <v>0.343499995517479</v>
+        <v>-1.15640189731083</v>
       </c>
       <c r="F11" t="n">
-        <v>1.55499745298116</v>
+        <v>-0.125025029609126</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.226956481615813</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.796229183085465</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.552350399900628</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-1.91164806630768</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-0.297928188287596</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-1.63398720954719</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-1.68560579624736</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-0.650827100220628</v>
+        <v>-0.280628731497702</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.169182701453225</v>
+        <v>-1.15112622433543</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.942497114099421</v>
+        <v>-0.94597971836333</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.101564767002688</v>
+        <v>-0.265761608664564</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.354766547906608</v>
+        <v>1.26060065484237</v>
       </c>
       <c r="F12" t="n">
-        <v>0.917985468372159</v>
+        <v>-0.171275431551311</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.46701691478606</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-1.60491375505345</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.504650170147727</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-1.60578437569845</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-0.308657959514418</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-1.94175183885471</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-1.13830416789331</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-0.628108380676998</v>
+        <v>-0.448220761973445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.490830725100154</v>
+        <v>-1.15421442242041</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.291463542030646</v>
+        <v>-0.968003346574581</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.248309210582218</v>
+        <v>-0.256521637128547</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.573335348417622</v>
+        <v>0.795792471735985</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.599130196852313</v>
+        <v>-0.0961185283952613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.341658885506175</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.133554734214844</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.105024538289625</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.72642626519692</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-0.242746507692514</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-0.133634641673004</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.34155224864881</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.200403653473625</v>
+        <v>-0.471605696458433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.576234337994585</v>
+        <v>-1.05448379014669</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.947079606094668</v>
+        <v>-0.848096926313325</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.254617933255028</v>
+        <v>0.257948778031347</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.433959940305609</v>
+        <v>-0.598632077583167</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.426768614317742</v>
+        <v>-0.142368930337446</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.584445640407442</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.0990137880381897</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.193660889960386</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.37638660774153</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.212090018473024</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.2897767688743</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.0295623810958773</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.799564804612367</v>
+        <v>-0.381963447599314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.152827948199331</v>
+        <v>-1.06465667795603</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.597851088224414</v>
+        <v>-0.848096926313325</v>
       </c>
       <c r="D15" t="n">
-        <v>1.24374066532103</v>
+        <v>-0.167649910900317</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.416384383245779</v>
+        <v>0.981715744978539</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.506674726874631</v>
+        <v>-0.1308063298519</v>
       </c>
       <c r="G15" t="n">
-        <v>0.142002917564852</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.604598078523281</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.57170582868056</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.191164806630768</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-0.258074752302259</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.481894616942045</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.489010146248455</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-0.542642721441439</v>
+        <v>-0.315706133225183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.640831883316022</v>
+        <v>-1.07283131994568</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21516824739724</v>
+        <v>-0.886434353199577</v>
       </c>
       <c r="D16" t="n">
-        <v>0.876821800460408</v>
+        <v>0.188060993322568</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.602428891718167</v>
+        <v>0.516907561872155</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.166419246873663</v>
+        <v>-0.0845559279097153</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.348031241277862</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.0554324954548063</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-0.0778760008981644</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.191164806630768</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-0.270337347990055</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.404953459615164</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-0.102477111772296</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.894105931178847</v>
+        <v>-0.358578513114327</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.302606500051466</v>
+        <v>-1.08536577099647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.301915886563058</v>
+        <v>-0.983501455315832</v>
       </c>
       <c r="D17" t="n">
-        <v>0.128081623812508</v>
+        <v>0.0104295405210895</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.548511218083798</v>
+        <v>2.7479868407828</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.445009290296719</v>
+        <v>-0.194400632522403</v>
       </c>
       <c r="G17" t="n">
-        <v>0.565764576382023</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.20799855802903</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.303800993878767</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.458795535913844</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.250410629997387</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-0.325987534990207</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-0.439715910563344</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.844521424238385</v>
+        <v>-0.506683098185914</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.261719616916731</v>
+        <v>-1.03631791905858</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.566093353001547</v>
+        <v>-0.900301082073328</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.24555469786592</v>
+        <v>0.262988762505537</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.630179248916823</v>
+        <v>-1.80713335365977</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0511846757545842</v>
+        <v>-0.18861933227963</v>
       </c>
       <c r="G18" t="n">
-        <v>1.21255868720823</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.47451820445383</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-0.194614287949005</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.649960342544612</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-0.25500910338031</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.78965924624957</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-0.622046307454975</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.92360050012814</v>
+        <v>-0.378065958518483</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>0.104558711165269</v>
+        <v>-1.04322095007206</v>
       </c>
       <c r="C19" t="n">
-        <v>0.368415305284766</v>
+        <v>-0.854622445783325</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.260971083552295</v>
+        <v>0.589355757123134</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.518942927971377</v>
+        <v>-1.43528680717466</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.194363620994342</v>
+        <v>-0.182838032036857</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0330356338690077</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.190959587271992</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.604015427183742</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-0.382329613261537</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.239680858770565</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-0.287516956326767</v>
-      </c>
-      <c r="M19" t="n">
-        <v>-0.0930605021711958</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-0.57185250371182</v>
+        <v>-0.43263080565012</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.887176117425197</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.793445700752072</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.845554967894497</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.34232517055338</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.142368930337446</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.319603622306015</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.994173098134164</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.892959872669577</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.790283138160872</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.90009499028104</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.11346242912358</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.370270980356821</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.1956326085013</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.03896837081084</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.358049324369745</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-2.36490317338743</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.18861933227963</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.436528294730952</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.12424073512503</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.94516402842958</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0755013400656413</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.505670440961891</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.153931530822992</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.40145089300347</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.1629340405427</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.959030757303331</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.283961552599141</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.80713335365977</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.136587630094673</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.46381071829677</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.03722621261298</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.978607315713332</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.0513942690289836</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0520993787657707</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.136587630094673</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.405348382084302</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.09989846786696</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.928034539820829</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.280321563812226</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.09725538443386</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.194400632522403</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.444323272892614</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="n">
-        <v>-0.301584327973097</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.647938791428265</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.13852183376842</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3.06874519608883</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.800881353024472</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.341457653218648</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.542765520552728</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-0.0363502218383372</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-0.152931845304615</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.161506811260866</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.597306352932367</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.183435990731437</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.23001842728823</v>
+      <c r="B27" t="n">
+        <v>-1.00252939883469</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.817100708830823</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.133770015268257</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0520993787657707</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0729933274241692</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.30401366598269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.02977820546686</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.826888988035823</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.218945752882081</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.145061015387047</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0961185283952613</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.284526220578533</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.03232142741919</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.825257608168323</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.112994079269093</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.145061015387047</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.200181932765176</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.27283375333604</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.22124648673554</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.00797215332833</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.626792496499095</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.412708804340614</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0903372281524883</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.479400674620095</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.20635047244329</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.95495230763458</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.524816810637968</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.19021702105514</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.194400632522403</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.448220761973445</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.19599592592306</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.957399377435831</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.392881217069153</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.691593714204444</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.171275431551311</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.452118251054277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.998169589773548</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.955767997568331</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.629003634986768</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.71417171703849</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.11346242912358</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.378065958518483</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.25703325277911</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.06670182855834</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.782360017269116</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.145061015387047</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.344714438834502</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.580735390721707</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.11697438668979</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.839940026975824</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.238292838582002</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.0408622578555064</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.101899828638034</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.491093141862589</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.190298885664016</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.307415343190193</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.633776064729613</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.114073803179955</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.225234233817192</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.391057588787921</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.929548917444037</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.870576869467164</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.336925127335147</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.485920349665063</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.22164756337869</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.433929968677064</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.3588858244107</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.846030644608945</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.278424828914429</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.505670440961891</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.236796834302738</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.457314903162052</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0569983964295072</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.477109060148489</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.00594418681697602</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.423945925250878</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.229088433979041</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.402750056030414</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.896749427979394</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.868688698324224</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0166112992557913</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.361971500836693</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.94141944360393</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.481979965318276</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.22390331007544</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.559028630882077</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.366443076290342</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.660606501997352</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.165494131308538</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.405348382084302</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.761346407368947</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.198387942580553</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.805238020866878</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0520993787657707</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.128879229770975</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.384561773653202</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.88833930247564</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.915892976897722</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.529813422026398</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.950728532771447</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.00987197605557757</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.395224745407922</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.029665488542305</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.283355644012849</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1.02275586931575</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.17604822759414</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.190546432360554</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.410545034192077</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.504837579504434</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.156588232292152</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.670682879812094</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1.43528680717466</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.279193036083074</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.537863010832564</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.313467632010879</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.872733783386405</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.622757580153836</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.18738910951792</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.292682736649544</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.510580587266745</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.429146449970644</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.430255358933575</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.123294936425911</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.702830835114709</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.209817433169798</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.484361764201007</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.26893355912412</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.460843731449201</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.231758306005255</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.22961344263528</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.171275431551311</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.20388155395668</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.748310712838127</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.08394020861937</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.704812882935799</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.269009864215417</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.229088433979041</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.407946708138189</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.424941387218766</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.499437949610894</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.0900735572837916</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.269009864215417</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.244505234626436</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.31741396736682</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.02794738583796</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.61829264207137</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.376980559498854</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.485920349665063</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.219452933574419</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.25786899529857</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.45476125515351</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.85431403493886</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.232924969077984</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.640856410700524</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.225234233817192</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.55371193895124</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.676404139781026</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.71763500688903</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.744349798178293</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.195798318890968</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.205963233007949</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.44302410986567</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.879929176971885</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.02918324547412</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.0392588990049137</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.00987504564841389</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.107681128880807</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.72080408723286</v>
       </c>
     </row>
   </sheetData>
